--- a/data/trans_orig/P14B16-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B16-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B76ED962-2DFB-4C31-8A9C-80DDA3BD9E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26EC9C50-E935-4DC4-9592-BA7FA3E77D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4A2E8BC2-9A2C-4A92-94D6-4642F223AD11}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{49260C77-4961-4052-AD87-49FBC882BFC5}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="228">
   <si>
     <t>Población cuya alergia crónica le limita en 2012 (Tasa respuesta: 6,15%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>44,2%</t>
   </si>
   <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
   </si>
   <si>
     <t>33,71%</t>
   </si>
   <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
   </si>
   <si>
     <t>37,38%</t>
   </si>
   <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>55,8%</t>
   </si>
   <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
   </si>
   <si>
     <t>66,29%</t>
   </si>
   <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
   </si>
   <si>
     <t>62,62%</t>
   </si>
   <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>24,38%</t>
   </si>
   <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
   </si>
   <si>
     <t>32,22%</t>
   </si>
   <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
   </si>
   <si>
     <t>28,91%</t>
   </si>
   <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
   </si>
   <si>
     <t>75,62%</t>
   </si>
   <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
   </si>
   <si>
     <t>67,78%</t>
   </si>
   <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
   </si>
   <si>
     <t>71,09%</t>
   </si>
   <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -196,394 +196,391 @@
     <t>36,64%</t>
   </si>
   <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
   </si>
   <si>
     <t>17,79%</t>
   </si>
   <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
   </si>
   <si>
     <t>25,72%</t>
   </si>
   <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya alergia crónica le limita en 2015 (Tasa respuesta: 6,49%)</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>Población cuya alergia crónica le limita en 2023 (Tasa respuesta: 10,58%)</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
     <t>16,02%</t>
   </si>
   <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
   </si>
   <si>
     <t>83,98%</t>
   </si>
   <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya alergia crónica le limita en 2015 (Tasa respuesta: 6,49%)</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>Población cuya alergia crónica le limita en 2023 (Tasa respuesta: 10,58%)</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
     <t>16,01%</t>
   </si>
   <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
   </si>
   <si>
     <t>17,22%</t>
   </si>
   <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
+    <t>13,27%</t>
   </si>
   <si>
     <t>16,63%</t>
@@ -592,31 +589,28 @@
     <t>13,36%</t>
   </si>
   <si>
-    <t>20,85%</t>
+    <t>20,6%</t>
   </si>
   <si>
     <t>83,99%</t>
   </si>
   <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
   </si>
   <si>
     <t>82,78%</t>
   </si>
   <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
+    <t>86,73%</t>
   </si>
   <si>
     <t>83,37%</t>
   </si>
   <si>
-    <t>79,15%</t>
+    <t>79,4%</t>
   </si>
   <si>
     <t>86,64%</t>
@@ -625,109 +619,109 @@
     <t>9,49%</t>
   </si>
   <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
   </si>
   <si>
     <t>22,39%</t>
   </si>
   <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
   </si>
   <si>
     <t>17,92%</t>
   </si>
   <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
   </si>
   <si>
     <t>90,51%</t>
   </si>
   <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
   </si>
   <si>
     <t>77,61%</t>
   </si>
   <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
   </si>
   <si>
     <t>82,08%</t>
   </si>
   <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
   </si>
   <si>
     <t>15,15%</t>
   </si>
   <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
   </si>
   <si>
     <t>19,81%</t>
   </si>
   <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
   </si>
   <si>
     <t>17,81%</t>
   </si>
   <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
   </si>
   <si>
     <t>84,85%</t>
   </si>
   <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
   </si>
   <si>
     <t>80,19%</t>
   </si>
   <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
   </si>
   <si>
     <t>82,19%</t>
   </si>
   <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
   </si>
 </sst>
 </file>
@@ -1139,7 +1133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F372F12-A3B5-45E0-A786-942522BF22A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E543F8-369F-40EC-8245-3036A98F8BF7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1606,10 +1600,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1624,13 +1618,13 @@
         <v>20256</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>32</v>
@@ -1639,13 +1633,13 @@
         <v>36226</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>52</v>
@@ -1654,13 +1648,13 @@
         <v>56481</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1728,13 +1722,13 @@
         <v>53300</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="H13" s="7">
         <v>72</v>
@@ -1743,13 +1737,13 @@
         <v>76889</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>117</v>
@@ -1758,13 +1752,13 @@
         <v>130189</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1779,13 +1773,13 @@
         <v>120380</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>166</v>
@@ -1794,13 +1788,13 @@
         <v>178426</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>283</v>
@@ -1809,13 +1803,13 @@
         <v>298806</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1871,7 +1865,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1890,7 +1884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B457CD24-71CD-4030-B4AF-C45ACFC14EB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2014B260-2A60-454A-AEB0-0B87C69653F8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1907,7 +1901,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2014,13 +2008,13 @@
         <v>10609</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -2029,13 +2023,13 @@
         <v>13824</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -2044,13 +2038,13 @@
         <v>24433</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2065,13 +2059,13 @@
         <v>6764</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H5" s="7">
         <v>33</v>
@@ -2080,13 +2074,13 @@
         <v>35935</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M5" s="7">
         <v>40</v>
@@ -2095,13 +2089,13 @@
         <v>42699</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2169,13 +2163,13 @@
         <v>21400</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H7" s="7">
         <v>50</v>
@@ -2184,13 +2178,13 @@
         <v>52949</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M7" s="7">
         <v>71</v>
@@ -2199,13 +2193,13 @@
         <v>74349</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2220,13 +2214,13 @@
         <v>81757</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H8" s="7">
         <v>116</v>
@@ -2235,13 +2229,13 @@
         <v>119093</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>194</v>
@@ -2250,13 +2244,13 @@
         <v>200850</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2324,13 +2318,13 @@
         <v>7925</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -2339,13 +2333,13 @@
         <v>16720</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -2354,13 +2348,13 @@
         <v>24645</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2375,13 +2369,13 @@
         <v>39015</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H11" s="7">
         <v>40</v>
@@ -2390,13 +2384,13 @@
         <v>43049</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>76</v>
@@ -2405,13 +2399,13 @@
         <v>82064</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,13 +2473,13 @@
         <v>39933</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>77</v>
@@ -2494,13 +2488,13 @@
         <v>83494</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>116</v>
@@ -2509,13 +2503,13 @@
         <v>123427</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2530,13 +2524,13 @@
         <v>127536</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>189</v>
@@ -2545,13 +2539,13 @@
         <v>198077</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>310</v>
@@ -2560,13 +2554,13 @@
         <v>325613</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>49</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2622,7 +2616,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2641,7 +2635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A6E6C4-06AA-4E3A-8D7C-3A09EDB8D0DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575859D2-BFF7-43DB-8308-56C657DB965B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2658,7 +2652,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2765,13 +2759,13 @@
         <v>5780</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>31</v>
@@ -2780,13 +2774,13 @@
         <v>20197</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>37</v>
@@ -2795,13 +2789,13 @@
         <v>25977</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2816,13 +2810,13 @@
         <v>25913</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>110</v>
@@ -2831,13 +2825,13 @@
         <v>62719</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M5" s="7">
         <v>140</v>
@@ -2846,10 +2840,10 @@
         <v>88632</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>175</v>
@@ -2941,7 +2935,7 @@
         <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="M7" s="7">
         <v>93</v>
@@ -2950,13 +2944,13 @@
         <v>80621</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,13 +2965,13 @@
         <v>200621</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>274</v>
@@ -2986,13 +2980,13 @@
         <v>203658</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>450</v>
@@ -3001,13 +2995,13 @@
         <v>404279</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,13 +3069,13 @@
         <v>5080</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -3090,13 +3084,13 @@
         <v>22631</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -3105,13 +3099,13 @@
         <v>27710</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,13 +3120,13 @@
         <v>48448</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>116</v>
@@ -3141,13 +3135,13 @@
         <v>78436</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>167</v>
@@ -3156,13 +3150,13 @@
         <v>126885</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,13 +3224,13 @@
         <v>49112</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H13" s="7">
         <v>122</v>
@@ -3245,13 +3239,13 @@
         <v>85196</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>164</v>
@@ -3260,13 +3254,13 @@
         <v>134309</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,13 +3275,13 @@
         <v>274983</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>500</v>
@@ -3296,13 +3290,13 @@
         <v>344813</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>757</v>
@@ -3311,13 +3305,13 @@
         <v>619795</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,7 +3367,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B16-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B16-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26EC9C50-E935-4DC4-9592-BA7FA3E77D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F0EF873-8621-414E-A654-3F311922E859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{49260C77-4961-4052-AD87-49FBC882BFC5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F933AAE8-D986-445E-A582-5AB0CBEA46D0}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="230">
   <si>
     <t>Población cuya alergia crónica le limita en 2012 (Tasa respuesta: 6,15%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>44,2%</t>
   </si>
   <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
   </si>
   <si>
     <t>33,71%</t>
   </si>
   <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
   </si>
   <si>
     <t>37,38%</t>
   </si>
   <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>55,8%</t>
   </si>
   <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
   </si>
   <si>
     <t>66,29%</t>
   </si>
   <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
   </si>
   <si>
     <t>62,62%</t>
   </si>
   <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,376 +139,388 @@
     <t>24,38%</t>
   </si>
   <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
   </si>
   <si>
     <t>32,22%</t>
   </si>
   <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya alergia crónica le limita en 2016 (Tasa respuesta: 6,49%)</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
     <t>24,41%</t>
   </si>
   <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
   </si>
   <si>
     <t>75,59%</t>
   </si>
   <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya alergia crónica le limita en 2015 (Tasa respuesta: 6,49%)</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
     <t>72,51%</t>
   </si>
   <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
   </si>
   <si>
     <t>Población cuya alergia crónica le limita en 2023 (Tasa respuesta: 10,58%)</t>
@@ -634,9 +646,6 @@
     <t>32,09%</t>
   </si>
   <si>
-    <t>17,92%</t>
-  </si>
-  <si>
     <t>12,75%</t>
   </si>
   <si>
@@ -659,9 +668,6 @@
   </si>
   <si>
     <t>84,3%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
   </si>
   <si>
     <t>74,62%</t>
@@ -1133,7 +1139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E543F8-369F-40EC-8245-3036A98F8BF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4FA7491-6A57-4C90-900E-EA3A45E2EFB1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1600,10 +1606,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1618,13 +1624,13 @@
         <v>20256</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>32</v>
@@ -1633,13 +1639,13 @@
         <v>36226</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>52</v>
@@ -1648,13 +1654,13 @@
         <v>56481</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1722,13 +1728,13 @@
         <v>53300</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>72</v>
@@ -1737,13 +1743,13 @@
         <v>76889</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>117</v>
@@ -1752,13 +1758,13 @@
         <v>130189</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1773,13 +1779,13 @@
         <v>120380</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>166</v>
@@ -1788,13 +1794,13 @@
         <v>178426</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>283</v>
@@ -1803,13 +1809,13 @@
         <v>298806</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1865,7 +1871,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1884,7 +1890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2014B260-2A60-454A-AEB0-0B87C69653F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84FF4FC-B44F-45B1-8BD5-38A37653C982}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1901,7 +1907,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2008,13 +2014,13 @@
         <v>10609</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -2023,13 +2029,13 @@
         <v>13824</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -2038,13 +2044,13 @@
         <v>24433</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2059,13 +2065,13 @@
         <v>6764</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>33</v>
@@ -2074,13 +2080,13 @@
         <v>35935</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>40</v>
@@ -2089,13 +2095,13 @@
         <v>42699</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2163,13 +2169,13 @@
         <v>21400</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>50</v>
@@ -2178,13 +2184,13 @@
         <v>52949</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>71</v>
@@ -2193,13 +2199,13 @@
         <v>74349</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2214,13 +2220,13 @@
         <v>81757</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>116</v>
@@ -2229,13 +2235,13 @@
         <v>119093</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>194</v>
@@ -2244,13 +2250,13 @@
         <v>200850</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2318,13 +2324,13 @@
         <v>7925</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -2333,13 +2339,13 @@
         <v>16720</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -2348,13 +2354,13 @@
         <v>24645</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2369,13 +2375,13 @@
         <v>39015</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>40</v>
@@ -2384,13 +2390,13 @@
         <v>43049</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>76</v>
@@ -2399,13 +2405,13 @@
         <v>82064</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2473,13 +2479,13 @@
         <v>39933</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>77</v>
@@ -2488,13 +2494,13 @@
         <v>83494</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>116</v>
@@ -2503,13 +2509,13 @@
         <v>123427</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2524,13 +2530,13 @@
         <v>127536</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>189</v>
@@ -2539,13 +2545,13 @@
         <v>198077</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>310</v>
@@ -2554,13 +2560,13 @@
         <v>325613</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,7 +2622,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2635,7 +2641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575859D2-BFF7-43DB-8308-56C657DB965B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A58F41-B18F-4E02-91B2-032192F76867}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2652,7 +2658,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2759,13 +2765,13 @@
         <v>5780</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>31</v>
@@ -2774,13 +2780,13 @@
         <v>20197</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>37</v>
@@ -2789,13 +2795,13 @@
         <v>25977</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,13 +2816,13 @@
         <v>25913</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>110</v>
@@ -2825,13 +2831,13 @@
         <v>62719</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>140</v>
@@ -2840,13 +2846,13 @@
         <v>88632</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2914,13 +2920,13 @@
         <v>38253</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>62</v>
@@ -2929,13 +2935,13 @@
         <v>42368</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M7" s="7">
         <v>93</v>
@@ -2944,13 +2950,13 @@
         <v>80621</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,13 +2971,13 @@
         <v>200621</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>274</v>
@@ -2980,13 +2986,13 @@
         <v>203658</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>450</v>
@@ -2995,13 +3001,13 @@
         <v>404279</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,13 +3075,13 @@
         <v>5080</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -3084,13 +3090,13 @@
         <v>22631</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -3099,13 +3105,13 @@
         <v>27710</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,13 +3126,13 @@
         <v>48448</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H11" s="7">
         <v>116</v>
@@ -3135,13 +3141,13 @@
         <v>78436</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M11" s="7">
         <v>167</v>
@@ -3150,13 +3156,13 @@
         <v>126885</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,13 +3230,13 @@
         <v>49112</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H13" s="7">
         <v>122</v>
@@ -3239,13 +3245,13 @@
         <v>85196</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>164</v>
@@ -3254,13 +3260,13 @@
         <v>134309</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,13 +3281,13 @@
         <v>274983</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>500</v>
@@ -3290,13 +3296,13 @@
         <v>344813</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>757</v>
@@ -3305,13 +3311,13 @@
         <v>619795</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,7 +3373,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
